--- a/results/metric_df/WGA_metrics.xlsx
+++ b/results/metric_df/WGA_metrics.xlsx
@@ -3942,7 +3942,7 @@
         <v>2.570518698328314</v>
       </c>
       <c r="D84" t="n">
-        <v>1.273333333333333</v>
+        <v>1.900733333333334</v>
       </c>
       <c r="E84" t="n">
         <v>0.453</v>
@@ -3984,7 +3984,7 @@
         <v>2.711527408935724</v>
       </c>
       <c r="D85" t="n">
-        <v>2.3327</v>
+        <v>4.867050000000001</v>
       </c>
       <c r="E85" t="n">
         <v>0.457</v>

--- a/results/metric_df/WGA_metrics.xlsx
+++ b/results/metric_df/WGA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -488,208 +498,238 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4610182282930113</v>
+        <v>-0.2951794105821544</v>
       </c>
       <c r="C2" t="n">
-        <v>2.51662980429828</v>
+        <v>3.72349594265814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8351164883511648</v>
+        <v>3.72349594265814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.386</v>
+        <v>3.72349594265814</v>
       </c>
       <c r="F2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>4.2869</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.58</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.104133841893318</v>
+        <v>-0.595317290140974</v>
       </c>
       <c r="C3" t="n">
-        <v>2.967301716015255</v>
+        <v>2.582703611888574</v>
       </c>
       <c r="D3" t="n">
-        <v>4.8941</v>
+        <v>2.582703611888574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.465</v>
+        <v>2.582703611888574</v>
       </c>
       <c r="F3" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>27.14356</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3319138583501309</v>
+        <v>0.3332153221304391</v>
       </c>
       <c r="C4" t="n">
-        <v>2.061288777063059</v>
+        <v>3.174946305679542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8928400000000001</v>
+        <v>3.174946305679542</v>
       </c>
       <c r="E4" t="n">
-        <v>0.435</v>
+        <v>3.174946305679542</v>
       </c>
       <c r="F4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="G4" t="inlineStr">
+        <v>14.60404</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4425732458856849</v>
+        <v>-0.2253595513891869</v>
       </c>
       <c r="C5" t="n">
-        <v>2.673348431041135</v>
+        <v>3.614163003480155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9008432490084324</v>
+        <v>3.614163003480155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.394</v>
+        <v>3.614163003480155</v>
       </c>
       <c r="F5" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>4.019566666666667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.83</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3320027555410415</v>
+        <v>-0.0993087084939714</v>
       </c>
       <c r="C6" t="n">
-        <v>2.168980438913423</v>
+        <v>3.250676327925827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6372637263726374</v>
+        <v>3.250676327925827</v>
       </c>
       <c r="E6" t="n">
-        <v>0.485</v>
+        <v>3.250676327925827</v>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>3.30334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -698,40 +738,46 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-4)GlcNAc</t>
+          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.829474018559782</v>
+        <v>-0.293987088408305</v>
       </c>
       <c r="C7" t="n">
-        <v>2.659851872089858</v>
+        <v>3.838393281831593</v>
       </c>
       <c r="D7" t="n">
-        <v>2.181206879312068</v>
+        <v>3.838393281831593</v>
       </c>
       <c r="E7" t="n">
-        <v>0.463</v>
+        <v>3.838393281831593</v>
       </c>
       <c r="F7" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>5.458500000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.619999999999999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -740,82 +786,94 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+          <t>Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4246383419286736</v>
+        <v>-0.5604146451097033</v>
       </c>
       <c r="C8" t="n">
-        <v>2.459217179038713</v>
+        <v>4.037903583503363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9658333333333333</v>
+        <v>4.037903583503363</v>
       </c>
       <c r="E8" t="n">
-        <v>0.413</v>
+        <v>4.037903583503363</v>
       </c>
       <c r="F8" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>6.456628571428572</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.97</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4465006020931783</v>
+        <v>1.094756306863709</v>
       </c>
       <c r="C9" t="n">
-        <v>2.58787111517958</v>
+        <v>2.708633284112756</v>
       </c>
       <c r="D9" t="n">
-        <v>48.31011851185119</v>
+        <v>2.708633284112756</v>
       </c>
       <c r="E9" t="n">
-        <v>0.489</v>
+        <v>2.708633284112756</v>
       </c>
       <c r="F9" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>14.8989098909891</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="H9" t="n">
+        <v>81.70999999999999</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['B2,5']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -824,40 +882,46 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3066239317702828</v>
+        <v>-0.1507960154547091</v>
       </c>
       <c r="C10" t="n">
-        <v>1.955646617221675</v>
+        <v>2.334458641627625</v>
       </c>
       <c r="D10" t="n">
-        <v>19.68863553021969</v>
+        <v>2.334458641627625</v>
       </c>
       <c r="E10" t="n">
-        <v>0.458</v>
+        <v>2.334458641627625</v>
       </c>
       <c r="F10" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="G10" t="inlineStr">
+        <v>9.492650734926507</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -866,40 +930,46 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.5659182161263792</v>
+        <v>-0.6009984625519025</v>
       </c>
       <c r="C11" t="n">
-        <v>2.605259329532925</v>
+        <v>2.428297539461247</v>
       </c>
       <c r="D11" t="n">
-        <v>21.22872</v>
+        <v>4.856595078922495</v>
       </c>
       <c r="E11" t="n">
-        <v>0.471</v>
+        <v>2.840655107701943</v>
       </c>
       <c r="F11" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>13.99963333333334</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4395</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.015</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -908,40 +978,46 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.595317290140974</v>
+        <v>-0.2298475238975786</v>
       </c>
       <c r="C12" t="n">
-        <v>2.630316181276536</v>
+        <v>3.126238794575282</v>
       </c>
       <c r="D12" t="n">
-        <v>22.94974000000001</v>
+        <v>3.126238794575282</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4175</v>
+        <v>3.126238794575282</v>
       </c>
       <c r="F12" t="n">
-        <v>5.795</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>21.40945714285714</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12.82</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -950,124 +1026,142 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3332153221304391</v>
+        <v>-0.1507960154547091</v>
       </c>
       <c r="C13" t="n">
-        <v>3.174946305679542</v>
+        <v>2.833053165178001</v>
       </c>
       <c r="D13" t="n">
-        <v>14.60404</v>
+        <v>2.833053165178001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.408</v>
+        <v>2.833053165178001</v>
       </c>
       <c r="F13" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>22.80876666666667</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-6)']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3067013817238567</v>
+        <v>1.336847125336834</v>
       </c>
       <c r="C14" t="n">
-        <v>2.248713948572036</v>
+        <v>2.580267382886049</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9582958295829582</v>
+        <v>5.160534765772098</v>
       </c>
       <c r="E14" t="n">
-        <v>0.404</v>
+        <v>2.800341507190769</v>
       </c>
       <c r="F14" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>10.62022142857143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4445</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.71</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1']</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0993087084939714</v>
+        <v>-0.244092927892523</v>
       </c>
       <c r="C15" t="n">
-        <v>3.250676327925827</v>
+        <v>3.242813562400603</v>
       </c>
       <c r="D15" t="n">
-        <v>3.30334</v>
+        <v>3.242813562400603</v>
       </c>
       <c r="E15" t="n">
-        <v>0.433</v>
+        <v>3.242813562400603</v>
       </c>
       <c r="F15" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="G15" t="inlineStr">
+        <v>0.4852514748525147</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-6)']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1076,82 +1170,94 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)Glc(b1-6)[Gal(b1-4)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.014566804880378</v>
+        <v>0.8073002369990295</v>
       </c>
       <c r="C16" t="n">
-        <v>2.493045861463653</v>
+        <v>2.918360420020854</v>
       </c>
       <c r="D16" t="n">
-        <v>1.231254652312546</v>
+        <v>5.836720840041709</v>
       </c>
       <c r="E16" t="n">
-        <v>0.421</v>
+        <v>3.138514975631664</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>9.114328099476616</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4345</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.77</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1']</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.515979518779966</v>
+        <v>-0.0264186747031033</v>
       </c>
       <c r="C17" t="n">
-        <v>2.696076070279954</v>
+        <v>3.02411334698875</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0412</v>
+        <v>6.048226693977499</v>
       </c>
       <c r="E17" t="n">
-        <v>0.419</v>
+        <v>3.183609109940719</v>
       </c>
       <c r="F17" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>13.97419146974191</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4395</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.93</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1']</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1160,40 +1266,46 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6127657266699974</v>
+        <v>1.30951393219894</v>
       </c>
       <c r="C18" t="n">
-        <v>2.695990190064738</v>
+        <v>2.668713679252982</v>
       </c>
       <c r="D18" t="n">
-        <v>25.36013333333333</v>
+        <v>8.006141037758946</v>
       </c>
       <c r="E18" t="n">
-        <v>0.469</v>
+        <v>2.978851914555812</v>
       </c>
       <c r="F18" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>13.78709166666667</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4513333333333334</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.153333333333334</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1202,40 +1314,46 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)[GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5252803250350045</v>
+        <v>0.7520929593991345</v>
       </c>
       <c r="C19" t="n">
-        <v>2.246467761813506</v>
+        <v>2.836386756722062</v>
       </c>
       <c r="D19" t="n">
-        <v>14.9743</v>
+        <v>8.509160270166188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.429</v>
+        <v>3.154373577582813</v>
       </c>
       <c r="F19" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>15.99906666666667</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4533333333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.946666666666666</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1244,40 +1362,46 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)[GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.121452314536479</v>
+        <v>-0.1507960154547091</v>
       </c>
       <c r="C20" t="n">
-        <v>2.812526398553185</v>
+        <v>2.844577263115277</v>
       </c>
       <c r="D20" t="n">
-        <v>15.29352935293529</v>
+        <v>8.533731789345831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.386</v>
+        <v>2.980168080770388</v>
       </c>
       <c r="F20" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>27.79051428571429</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4186666666666667</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.830000000000001</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1286,40 +1410,46 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.094756306863709</v>
+        <v>-0.1507960154547091</v>
       </c>
       <c r="C21" t="n">
-        <v>2.763451974346288</v>
+        <v>3.209085805345607</v>
       </c>
       <c r="D21" t="n">
-        <v>12.78877887788779</v>
+        <v>3.209085805345607</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4035</v>
+        <v>3.209085805345607</v>
       </c>
       <c r="F21" t="n">
-        <v>44.665</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['B2,5', '4C1']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>15.1356</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.35</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1328,40 +1458,46 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>-0.1507960154547091</v>
       </c>
       <c r="C22" t="n">
-        <v>2.326826696889097</v>
+        <v>2.711231391700031</v>
       </c>
       <c r="D22" t="n">
-        <v>8.469253074692531</v>
+        <v>2.711231391700031</v>
       </c>
       <c r="E22" t="n">
-        <v>0.44</v>
+        <v>2.711231391700031</v>
       </c>
       <c r="F22" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>18.5894</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.76</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1370,40 +1506,46 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)[GlcNAc(b1-4)]Man(a1-3)[GlcNAc(b1-2)[GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.6009984625519025</v>
+        <v>-0.6811541675941215</v>
       </c>
       <c r="C23" t="n">
-        <v>2.555169295317581</v>
+        <v>3.019350740931011</v>
       </c>
       <c r="D23" t="n">
-        <v>13.90317777777778</v>
+        <v>12.07740296372405</v>
       </c>
       <c r="E23" t="n">
-        <v>0.445</v>
+        <v>3.235564404001599</v>
       </c>
       <c r="F23" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>20.454675</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.46675</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.555</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-2)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1412,376 +1554,430 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-3)Fuc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.2298475238975786</v>
+        <v>0.327380824628231</v>
       </c>
       <c r="C24" t="n">
-        <v>2.864114484737092</v>
+        <v>3.44879154250173</v>
       </c>
       <c r="D24" t="n">
-        <v>22.60731428571429</v>
+        <v>3.44879154250173</v>
       </c>
       <c r="E24" t="n">
-        <v>0.412</v>
+        <v>3.44879154250173</v>
       </c>
       <c r="F24" t="n">
-        <v>10.495</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>1.753549645035496</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.28</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.1603473025666722</v>
       </c>
       <c r="C25" t="n">
-        <v>2.556020803000679</v>
+        <v>3.33805605649451</v>
       </c>
       <c r="D25" t="n">
-        <v>17.00346666666667</v>
+        <v>3.33805605649451</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4395</v>
+        <v>3.33805605649451</v>
       </c>
       <c r="F25" t="n">
-        <v>4.734999999999999</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>3.397433333333334</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10.07</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.336847125336834</v>
+        <v>-0.2673113006023939</v>
       </c>
       <c r="C26" t="n">
-        <v>2.60651533055575</v>
+        <v>3.384846311904607</v>
       </c>
       <c r="D26" t="n">
-        <v>11.90581428571429</v>
+        <v>3.384846311904607</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4473333333333334</v>
+        <v>3.384846311904607</v>
       </c>
       <c r="F26" t="n">
-        <v>4.473333333333334</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>6.510950000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.77</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.5033132701746605</v>
+        <v>-0.3516435181028897</v>
       </c>
       <c r="C27" t="n">
-        <v>2.649840615872934</v>
+        <v>3.189582406391184</v>
       </c>
       <c r="D27" t="n">
-        <v>38.04901428571428</v>
+        <v>3.189582406391184</v>
       </c>
       <c r="E27" t="n">
-        <v>0.449</v>
+        <v>3.189582406391184</v>
       </c>
       <c r="F27" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="G27" t="inlineStr">
+        <v>0.3374462553744627</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.685882276733537</v>
+        <v>1.022871588009142</v>
       </c>
       <c r="C28" t="n">
-        <v>1.859032791059621</v>
+        <v>3.187208375547809</v>
       </c>
       <c r="D28" t="n">
-        <v>21.71163333333333</v>
+        <v>6.374416751095618</v>
       </c>
       <c r="E28" t="n">
-        <v>0.48</v>
+        <v>3.316556208886869</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>['GlcNAc(a1-1)']</t>
-        </is>
+        <v>3.723719294737193</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4705</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7.505000000000001</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1']</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['GlcNAc(b1-3)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5704784579534485</v>
+        <v>2.207883888970846</v>
       </c>
       <c r="C29" t="n">
-        <v>3.025359750360424</v>
+        <v>3.293891865903291</v>
       </c>
       <c r="D29" t="n">
-        <v>4.57969796979698</v>
+        <v>3.293891865903291</v>
       </c>
       <c r="E29" t="n">
-        <v>0.437</v>
+        <v>3.293891865903291</v>
       </c>
       <c r="F29" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="G29" t="inlineStr">
+        <v>0.7885</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2985095398961197</v>
+        <v>3.917849557029505</v>
       </c>
       <c r="C30" t="n">
-        <v>3.021742003045417</v>
+        <v>3.321409580704815</v>
       </c>
       <c r="D30" t="n">
-        <v>3.645599999999999</v>
+        <v>3.321409580704815</v>
       </c>
       <c r="E30" t="n">
-        <v>0.448</v>
+        <v>3.321409580704815</v>
       </c>
       <c r="F30" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G30" t="inlineStr">
+        <v>1.234</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc</t>
+          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.414270451813416</v>
+        <v>2.241850019711145</v>
       </c>
       <c r="C31" t="n">
-        <v>3.715517682120495</v>
+        <v>3.109861010203161</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.109861010203161</v>
       </c>
       <c r="E31" t="n">
-        <v>0.434</v>
+        <v>3.109861010203161</v>
       </c>
       <c r="F31" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="G31" t="inlineStr">
+        <v>1.14174</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man</t>
+          <t>GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.244092927892523</v>
+        <v>1.466176651499359</v>
       </c>
       <c r="C32" t="n">
-        <v>3.242813562400603</v>
+        <v>3.505348698382484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4852514748525147</v>
+        <v>3.505348698382484</v>
       </c>
       <c r="E32" t="n">
-        <v>0.464</v>
+        <v>3.505348698382484</v>
       </c>
       <c r="F32" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="G32" t="inlineStr">
+        <v>1.00929907009299</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)']</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>['GlcNAc']</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1790,460 +1986,526 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8073002369990295</v>
+        <v>-0.1198354924034248</v>
       </c>
       <c r="C33" t="n">
-        <v>2.887457796186073</v>
+        <v>4.144891176816192</v>
       </c>
       <c r="D33" t="n">
-        <v>8.696291851407363</v>
+        <v>4.144891176816192</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4503333333333333</v>
+        <v>4.144891176816192</v>
       </c>
       <c r="F33" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>1.272575</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.93</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0264186747031033</v>
+        <v>-0.2743844019923321</v>
       </c>
       <c r="C34" t="n">
-        <v>2.780241602424201</v>
+        <v>3.837589611367167</v>
       </c>
       <c r="D34" t="n">
-        <v>11.64366155976995</v>
+        <v>3.837589611367167</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4263333333333333</v>
+        <v>3.837589611367167</v>
       </c>
       <c r="F34" t="n">
-        <v>7.649999999999999</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>5.226847684768479</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="H34" t="n">
+        <v>16.74</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.30951393219894</v>
+        <v>0.9350925815330612</v>
       </c>
       <c r="C35" t="n">
-        <v>2.694343064187201</v>
+        <v>4.108248112254997</v>
       </c>
       <c r="D35" t="n">
-        <v>13.28589375</v>
+        <v>4.108248112254997</v>
       </c>
       <c r="E35" t="n">
-        <v>0.439</v>
+        <v>4.108248112254997</v>
       </c>
       <c r="F35" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>5.13206</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.46</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)[GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.7520929593991345</v>
+        <v>-0.262031181757917</v>
       </c>
       <c r="C36" t="n">
-        <v>2.814610023412917</v>
+        <v>4.03618621316521</v>
       </c>
       <c r="D36" t="n">
-        <v>15.76365</v>
+        <v>4.03618621316521</v>
       </c>
       <c r="E36" t="n">
-        <v>0.458</v>
+        <v>4.03618621316521</v>
       </c>
       <c r="F36" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-6)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>18.00978431176451</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.35</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)[GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.3022023386893472</v>
       </c>
       <c r="C37" t="n">
-        <v>2.678498898099809</v>
+        <v>3.779249531613628</v>
       </c>
       <c r="D37" t="n">
-        <v>25.61708571428572</v>
+        <v>7.558499063227256</v>
       </c>
       <c r="E37" t="n">
-        <v>0.42575</v>
+        <v>4.045729380137986</v>
       </c>
       <c r="F37" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-2)', 'GlcNAc(b1-6)', 'GlcNAc(a1-1)']</t>
-        </is>
+        <v>11.09813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.4565</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.81</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-8)Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.2491406744155413</v>
       </c>
       <c r="C38" t="n">
-        <v>3.038912261497215</v>
+        <v>3.936333915698773</v>
       </c>
       <c r="D38" t="n">
-        <v>11.66923333333333</v>
+        <v>7.872667831397546</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4365</v>
+        <v>4.142362830816349</v>
       </c>
       <c r="F38" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>19.02823333333334</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.635</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.276925480509723</v>
       </c>
       <c r="C39" t="n">
-        <v>2.743031729177083</v>
+        <v>4.214625870722777</v>
       </c>
       <c r="D39" t="n">
-        <v>12.8404</v>
+        <v>4.214625870722777</v>
       </c>
       <c r="E39" t="n">
-        <v>0.448</v>
+        <v>4.214625870722777</v>
       </c>
       <c r="F39" t="n">
-        <v>7.965</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>3.8557</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.59</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)[GlcNAc(b1-4)]Man(a1-3)[GlcNAc(b1-2)[GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.6811541675941215</v>
+        <v>-0.2932810196074822</v>
       </c>
       <c r="C40" t="n">
-        <v>2.986697520854978</v>
+        <v>4.10571032184168</v>
       </c>
       <c r="D40" t="n">
-        <v>19.34934</v>
+        <v>4.10571032184168</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4618</v>
+        <v>4.10571032184168</v>
       </c>
       <c r="F40" t="n">
-        <v>8.442</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-2)', 'GlcNAc(b1-6)', 'GlcNAc(a1-1)']</t>
-        </is>
+        <v>5.306849999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.29</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)Fuc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.327380824628231</v>
+        <v>0.2227221739835903</v>
       </c>
       <c r="C41" t="n">
-        <v>3.44879154250173</v>
+        <v>4.071263742174115</v>
       </c>
       <c r="D41" t="n">
-        <v>1.753549645035496</v>
+        <v>4.071263742174115</v>
       </c>
       <c r="E41" t="n">
-        <v>0.458</v>
+        <v>4.071263742174115</v>
       </c>
       <c r="F41" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
+        <v>10.9323</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.109999999999999</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1603473025666722</v>
+        <v>-0.3089316186940979</v>
       </c>
       <c r="C42" t="n">
-        <v>3.33805605649451</v>
+        <v>3.968167699217878</v>
       </c>
       <c r="D42" t="n">
-        <v>3.397433333333334</v>
+        <v>3.968167699217878</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4</v>
+        <v>3.968167699217878</v>
       </c>
       <c r="F42" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
+        <v>8.28354</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.35</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.2673113006023939</v>
+        <v>0.3471240843780307</v>
       </c>
       <c r="C43" t="n">
-        <v>3.384846311904607</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="D43" t="n">
-        <v>6.510950000000001</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="E43" t="n">
-        <v>0.484</v>
+        <v>3.993249561324754</v>
       </c>
       <c r="F43" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
+        <v>6.192019201920193</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13.54</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2252,40 +2514,46 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.3516435181028897</v>
+        <v>-0.1653496881824642</v>
       </c>
       <c r="C44" t="n">
-        <v>3.189582406391184</v>
+        <v>3.964761393611081</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3374462553744627</v>
+        <v>7.929522787222162</v>
       </c>
       <c r="E44" t="n">
-        <v>0.453</v>
+        <v>4.078905980367729</v>
       </c>
       <c r="F44" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)']</t>
-        </is>
+        <v>5.961596159615961</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.635</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2294,166 +2562,190 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.022871588009142</v>
+        <v>-0.246262396751466</v>
       </c>
       <c r="C45" t="n">
-        <v>3.187208375547809</v>
+        <v>4.153007729280333</v>
       </c>
       <c r="D45" t="n">
-        <v>3.723719294737193</v>
+        <v>4.153007729280333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4705</v>
+        <v>4.153007729280333</v>
       </c>
       <c r="F45" t="n">
-        <v>7.505000000000001</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-3)', 'GlcNAc(b1-6)']</t>
-        </is>
+        <v>2.15392</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.84</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.207883888970846</v>
+        <v>1.085972174369806</v>
       </c>
       <c r="C46" t="n">
-        <v>3.047593625273934</v>
+        <v>4.170488355819718</v>
       </c>
       <c r="D46" t="n">
-        <v>0.79275</v>
+        <v>4.170488355819718</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4295</v>
+        <v>4.170488355819718</v>
       </c>
       <c r="F46" t="n">
-        <v>9.615</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>2.23434</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8.220000000000001</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.917849557029505</v>
+        <v>-0.3043873181934278</v>
       </c>
       <c r="C47" t="n">
-        <v>3.133500485295674</v>
+        <v>4.22816390159193</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7949999999999999</v>
+        <v>4.22816390159193</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3985</v>
+        <v>4.22816390159193</v>
       </c>
       <c r="F47" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>3.087</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="H47" t="n">
+        <v>15.81</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.241850019711145</v>
+        <v>-0.5275206417546143</v>
       </c>
       <c r="C48" t="n">
-        <v>2.691630543396045</v>
+        <v>4.243643621475615</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5708699999999999</v>
+        <v>4.243643621475615</v>
       </c>
       <c r="E48" t="n">
-        <v>0.378</v>
+        <v>4.243643621475615</v>
       </c>
       <c r="F48" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>39.12519999999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.109999999999999</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2462,82 +2754,94 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-6)GalNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.466176651499359</v>
+        <v>2.299597609532665</v>
       </c>
       <c r="C49" t="n">
-        <v>3.505348698382484</v>
+        <v>3.424753506942892</v>
       </c>
       <c r="D49" t="n">
-        <v>1.00929907009299</v>
+        <v>6.849507013885785</v>
       </c>
       <c r="E49" t="n">
-        <v>0.45</v>
+        <v>4.185252316871251</v>
       </c>
       <c r="F49" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-6)']</t>
-        </is>
+        <v>26.29602039796021</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.96</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '2C5']</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-2)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)', 'Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.1507960154547091</v>
+        <v>0.0598251828829136</v>
       </c>
       <c r="C50" t="n">
-        <v>2.723198674010578</v>
+        <v>2.827844494682651</v>
       </c>
       <c r="D50" t="n">
-        <v>28.82151111111111</v>
+        <v>8.483533484047953</v>
       </c>
       <c r="E50" t="n">
-        <v>0.433</v>
+        <v>3.949205408880535</v>
       </c>
       <c r="F50" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>24.98025135846918</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.4873333333333333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.666666666666667</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1', '2C5']</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)', 'Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2546,40 +2850,46 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.1507960154547091</v>
+        <v>0.0762381766394805</v>
       </c>
       <c r="C51" t="n">
-        <v>2.663648211283213</v>
+        <v>3.928310080631037</v>
       </c>
       <c r="D51" t="n">
-        <v>22.0852</v>
+        <v>7.856620161262073</v>
       </c>
       <c r="E51" t="n">
-        <v>0.387</v>
+        <v>4.194092176920991</v>
       </c>
       <c r="F51" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>50.5171</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.4355</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9.645</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2588,40 +2898,46 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)[Man(a1-3)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1507960154547091</v>
+        <v>1.164998592835622</v>
       </c>
       <c r="C52" t="n">
-        <v>2.74382026125511</v>
+        <v>3.985818711945287</v>
       </c>
       <c r="D52" t="n">
-        <v>31.81726666666667</v>
+        <v>7.971637423890574</v>
       </c>
       <c r="E52" t="n">
-        <v>0.367</v>
+        <v>4.249764853871158</v>
       </c>
       <c r="F52" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>35.03276339032763</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.4005</v>
+      </c>
+      <c r="H52" t="n">
+        <v>46.27</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', 'B2,5']</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2630,40 +2946,46 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.3019974544126036</v>
       </c>
       <c r="C53" t="n">
-        <v>2.823514575959683</v>
+        <v>3.741403603074428</v>
       </c>
       <c r="D53" t="n">
-        <v>10.76235709762357</v>
+        <v>7.482807206148856</v>
       </c>
       <c r="E53" t="n">
-        <v>0.426</v>
+        <v>3.815165399585339</v>
       </c>
       <c r="F53" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>56.04103743707704</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.53</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2672,40 +2994,46 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.3538082050139616</v>
       </c>
       <c r="C54" t="n">
-        <v>2.432357817448789</v>
+        <v>3.653495817619428</v>
       </c>
       <c r="D54" t="n">
-        <v>25.37760223977602</v>
+        <v>3.653495817619428</v>
       </c>
       <c r="E54" t="n">
-        <v>0.432</v>
+        <v>3.653495817619428</v>
       </c>
       <c r="F54" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>48.82972499999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9.789999999999999</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2714,40 +3042,46 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1507960154547091</v>
+        <v>2.808499553573141</v>
       </c>
       <c r="C55" t="n">
-        <v>2.76734664653372</v>
+        <v>2.828637637933291</v>
       </c>
       <c r="D55" t="n">
-        <v>14.01198571428571</v>
+        <v>8.485912913799872</v>
       </c>
       <c r="E55" t="n">
-        <v>0.457</v>
+        <v>3.538475714762224</v>
       </c>
       <c r="F55" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>33.57056666666667</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6.636666666666667</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1', '2C5']</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)', 'Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2756,40 +3090,46 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.3127010801906773</v>
+        <v>-0.399620543389333</v>
       </c>
       <c r="C56" t="n">
-        <v>2.801508959999052</v>
+        <v>3.687158457004663</v>
       </c>
       <c r="D56" t="n">
-        <v>20.90085</v>
+        <v>14.74863382801865</v>
       </c>
       <c r="E56" t="n">
-        <v>0.459</v>
+        <v>4.224116225190011</v>
       </c>
       <c r="F56" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>92.12955045504549</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9.6</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5', '2C5', '2C5']</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)', 'Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2798,40 +3138,46 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.4709090314099546</v>
       </c>
       <c r="C57" t="n">
-        <v>2.616487334936088</v>
+        <v>3.803346102916069</v>
       </c>
       <c r="D57" t="n">
-        <v>18.60833226179761</v>
+        <v>15.21338441166428</v>
       </c>
       <c r="E57" t="n">
-        <v>0.481</v>
+        <v>3.928025348141752</v>
       </c>
       <c r="F57" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>96.52</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27.85</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5', 'B3,O6', '2C5']</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)', 'Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2840,292 +3186,334 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-6)[Man(a1-3)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.0007269167497793</v>
       </c>
       <c r="C58" t="n">
-        <v>2.867442487535818</v>
+        <v>4.027885718913207</v>
       </c>
       <c r="D58" t="n">
-        <v>16.93075</v>
+        <v>4.027885718913207</v>
       </c>
       <c r="E58" t="n">
-        <v>0.394</v>
+        <v>4.027885718913207</v>
       </c>
       <c r="F58" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>12.51878145518781</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="H58" t="n">
+        <v>83.06999999999999</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['B2,5']</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.5675513393907236</v>
+        <v>-0.1493712898072345</v>
       </c>
       <c r="C59" t="n">
-        <v>2.716821004802122</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="D59" t="n">
-        <v>13.31468861171832</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="E59" t="n">
-        <v>0.394</v>
+        <v>4.167609593599931</v>
       </c>
       <c r="F59" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>14.70001428571429</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="H59" t="n">
+        <v>12.55</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.1186479964360991</v>
+        <v>-0.3762483112298579</v>
       </c>
       <c r="C60" t="n">
-        <v>2.87925793624405</v>
+        <v>4.278803872701642</v>
       </c>
       <c r="D60" t="n">
-        <v>7.207080000000001</v>
+        <v>4.278803872701642</v>
       </c>
       <c r="E60" t="n">
-        <v>0.399</v>
+        <v>4.278803872701642</v>
       </c>
       <c r="F60" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>2.78275</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10.31</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.2544764688791491</v>
+        <v>-0.3176000139719314</v>
       </c>
       <c r="C61" t="n">
-        <v>2.227435934423003</v>
+        <v>3.824403933866689</v>
       </c>
       <c r="D61" t="n">
-        <v>3.831733333333333</v>
+        <v>7.648807867733378</v>
       </c>
       <c r="E61" t="n">
-        <v>0.45</v>
+        <v>3.863303769247083</v>
       </c>
       <c r="F61" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>10.38003333333333</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.4415</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.03</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0161567159415759</v>
+        <v>-0.2739265734102087</v>
       </c>
       <c r="C62" t="n">
-        <v>2.877753615277843</v>
+        <v>4.168445786373701</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7514666666666667</v>
+        <v>4.168445786373701</v>
       </c>
       <c r="E62" t="n">
-        <v>0.385</v>
+        <v>4.168445786373701</v>
       </c>
       <c r="F62" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>7.913600000000001</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5.91</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0161567159415759</v>
+        <v>-0.1512752682241041</v>
       </c>
       <c r="C63" t="n">
-        <v>2.287219196613785</v>
+        <v>4.079428967749397</v>
       </c>
       <c r="D63" t="n">
-        <v>1.288166666666667</v>
+        <v>8.158857935498794</v>
       </c>
       <c r="E63" t="n">
-        <v>0.442</v>
+        <v>4.107388772174652</v>
       </c>
       <c r="F63" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>14.60475</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.4845</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.68</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.276925480509723</v>
+        <v>-0.252589023386747</v>
       </c>
       <c r="C64" t="n">
-        <v>2.912394011130452</v>
+        <v>4.120631616006582</v>
       </c>
       <c r="D64" t="n">
-        <v>1.943333333333333</v>
+        <v>4.120631616006582</v>
       </c>
       <c r="E64" t="n">
-        <v>0.442</v>
+        <v>4.120631616006582</v>
       </c>
       <c r="F64" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>4.55372</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="H64" t="n">
+        <v>18.58</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -3134,40 +3522,46 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3471240843780307</v>
+        <v>-0.3488172319068406</v>
       </c>
       <c r="C65" t="n">
-        <v>2.372823188008722</v>
+        <v>4.206395016477455</v>
       </c>
       <c r="D65" t="n">
-        <v>3.27967796779678</v>
+        <v>4.206395016477455</v>
       </c>
       <c r="E65" t="n">
-        <v>0.415</v>
+        <v>4.206395016477455</v>
       </c>
       <c r="F65" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>3.922066666666667</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H65" t="n">
+        <v>16.2</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -3176,40 +3570,46 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.085972174369806</v>
+        <v>-0.26502215168108</v>
       </c>
       <c r="C66" t="n">
-        <v>3.009314005295654</v>
+        <v>4.257635815143493</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8269799999999999</v>
+        <v>4.257635815143493</v>
       </c>
       <c r="E66" t="n">
-        <v>0.389</v>
+        <v>4.257635815143493</v>
       </c>
       <c r="F66" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.09</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -3218,334 +3618,382 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.5275206417546143</v>
+        <v>-0.2918038275377231</v>
       </c>
       <c r="C67" t="n">
-        <v>2.730086047917063</v>
+        <v>4.168356934984343</v>
       </c>
       <c r="D67" t="n">
-        <v>29.96891428571428</v>
+        <v>4.168356934984343</v>
       </c>
       <c r="E67" t="n">
-        <v>0.463</v>
+        <v>4.168356934984343</v>
       </c>
       <c r="F67" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>11.87956</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="H67" t="n">
+        <v>10.7</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.299597609532665</v>
+        <v>-0.275156920010528</v>
       </c>
       <c r="C68" t="n">
-        <v>2.696072385114933</v>
+        <v>4.131295532861801</v>
       </c>
       <c r="D68" t="n">
-        <v>20.65605106156051</v>
+        <v>8.262591065723601</v>
       </c>
       <c r="E68" t="n">
-        <v>0.455</v>
+        <v>4.176913134284119</v>
       </c>
       <c r="F68" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>15.88562856285629</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7.59</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)GalNAc</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0598251828829136</v>
+        <v>-0.4790018763532604</v>
       </c>
       <c r="C69" t="n">
-        <v>2.43005311923748</v>
+        <v>4.010868926115827</v>
       </c>
       <c r="D69" t="n">
-        <v>18.37219055238857</v>
+        <v>4.010868926115827</v>
       </c>
       <c r="E69" t="n">
-        <v>0.474</v>
+        <v>4.010868926115827</v>
       </c>
       <c r="F69" t="n">
-        <v>5.726666666666667</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>1.386838683868387</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.8</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0762381766394805</v>
+        <v>-0.2769448824872125</v>
       </c>
       <c r="C70" t="n">
-        <v>2.444722162466135</v>
+        <v>3.753542218834862</v>
       </c>
       <c r="D70" t="n">
-        <v>35.8854</v>
+        <v>3.753542218834862</v>
       </c>
       <c r="E70" t="n">
-        <v>0.398</v>
+        <v>3.753542218834862</v>
       </c>
       <c r="F70" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>4.296796346301297</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4.76</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.164998592835622</v>
+        <v>-0.3224073229139379</v>
       </c>
       <c r="C71" t="n">
-        <v>2.032357836478903</v>
+        <v>4.148720083623762</v>
       </c>
       <c r="D71" t="n">
-        <v>13.68876445688764</v>
+        <v>4.148720083623762</v>
       </c>
       <c r="E71" t="n">
-        <v>0.387</v>
+        <v>4.148720083623762</v>
       </c>
       <c r="F71" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>5.113211321132114</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5.14</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.3019974544126036</v>
+        <v>-0.464698013236394</v>
       </c>
       <c r="C72" t="n">
-        <v>1.523426766834045</v>
+        <v>4.267455298719907</v>
       </c>
       <c r="D72" t="n">
-        <v>40.68386838683868</v>
+        <v>4.267455298719907</v>
       </c>
       <c r="E72" t="n">
-        <v>0.437</v>
+        <v>4.267455298719907</v>
       </c>
       <c r="F72" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>3.356935693569356</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10.96</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.3538082050139616</v>
+        <v>-0.3563074913754227</v>
       </c>
       <c r="C73" t="n">
-        <v>2.477971212385327</v>
+        <v>4.021427922899613</v>
       </c>
       <c r="D73" t="n">
-        <v>26.69847499999999</v>
+        <v>4.021427922899613</v>
       </c>
       <c r="E73" t="n">
-        <v>0.438</v>
+        <v>4.021427922899613</v>
       </c>
       <c r="F73" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>6.082259999999999</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5.11</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.808499553573141</v>
+        <v>-0.1507960154547091</v>
       </c>
       <c r="C74" t="n">
-        <v>2.47426431918852</v>
+        <v>4.109653098323708</v>
       </c>
       <c r="D74" t="n">
-        <v>22.4934</v>
+        <v>4.109653098323708</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4326666666666667</v>
+        <v>4.109653098323708</v>
       </c>
       <c r="F74" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>32.88765</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="H74" t="n">
+        <v>9.529999999999999</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3554,40 +4002,46 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.399620543389333</v>
+        <v>-0.2722240802496531</v>
       </c>
       <c r="C75" t="n">
-        <v>2.787261570246235</v>
+        <v>3.607622208389722</v>
       </c>
       <c r="D75" t="n">
-        <v>64.19599459945995</v>
+        <v>7.215244416779443</v>
       </c>
       <c r="E75" t="n">
-        <v>0.361</v>
+        <v>3.782654212143295</v>
       </c>
       <c r="F75" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>63.31558000000001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.3905</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5.085</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3596,40 +4050,46 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.4709090314099546</v>
+        <v>-0.027255684871786</v>
       </c>
       <c r="C76" t="n">
-        <v>1.872815737947853</v>
+        <v>3.827510695943708</v>
       </c>
       <c r="D76" t="n">
-        <v>61.99999999999999</v>
+        <v>7.655021391887416</v>
       </c>
       <c r="E76" t="n">
-        <v>0.426</v>
+        <v>3.918236369513348</v>
       </c>
       <c r="F76" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>52.00177500000001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.4415</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.72</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3638,544 +4098,614 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.252589023386747</v>
+        <v>-0.5049185325122048</v>
       </c>
       <c r="C77" t="n">
-        <v>2.403472786113201</v>
+        <v>3.589224409614446</v>
       </c>
       <c r="D77" t="n">
-        <v>2.02476</v>
+        <v>7.178448819228891</v>
       </c>
       <c r="E77" t="n">
-        <v>0.445</v>
+        <v>3.952893427540636</v>
       </c>
       <c r="F77" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>53.64115000000001</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.4345</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5.359999999999999</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.464698013236394</v>
+        <v>2.372002761413204</v>
       </c>
       <c r="C78" t="n">
-        <v>2.929030074410667</v>
+        <v>2.906786875897419</v>
       </c>
       <c r="D78" t="n">
-        <v>2.43020968763543</v>
+        <v>8.720360627692257</v>
       </c>
       <c r="E78" t="n">
-        <v>0.466</v>
+        <v>3.982816231500002</v>
       </c>
       <c r="F78" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>22.6906</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.4456666666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5.803333333333334</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['4C1', '4C1', '2C5']</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>['GlcNAc(b1-?)', 'Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1507960154547091</v>
+        <v>0.5261792810570881</v>
       </c>
       <c r="C79" t="n">
-        <v>2.813164784350922</v>
+        <v>4.379913696596782</v>
       </c>
       <c r="D79" t="n">
-        <v>22.68680000000001</v>
+        <v>4.379913696596782</v>
       </c>
       <c r="E79" t="n">
-        <v>0.47</v>
+        <v>4.379913696596782</v>
       </c>
       <c r="F79" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>1.805880588058806</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="H79" t="n">
+        <v>13.25</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.2722240802496531</v>
+        <v>-0.3445143238683369</v>
       </c>
       <c r="C80" t="n">
-        <v>2.629891529608424</v>
+        <v>3.353466844962075</v>
       </c>
       <c r="D80" t="n">
-        <v>41.96934</v>
+        <v>6.706933689924149</v>
       </c>
       <c r="E80" t="n">
-        <v>0.459</v>
+        <v>3.437588662859488</v>
       </c>
       <c r="F80" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>17.84015</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="H80" t="n">
+        <v>11.165</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5', '2C5']</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-8)', 'Neu5Ac(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.027255684871786</v>
+        <v>-0.292200621571481</v>
       </c>
       <c r="C81" t="n">
-        <v>2.599978476861701</v>
+        <v>3.718186729197046</v>
       </c>
       <c r="D81" t="n">
-        <v>32.55675000000001</v>
+        <v>3.718186729197046</v>
       </c>
       <c r="E81" t="n">
-        <v>0.421</v>
+        <v>3.718186729197046</v>
       </c>
       <c r="F81" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>10.99137586241376</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9.359999999999999</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.5049185325122048</v>
+        <v>-0.3292039277462771</v>
       </c>
       <c r="C82" t="n">
-        <v>2.116867904741073</v>
+        <v>3.545260459300957</v>
       </c>
       <c r="D82" t="n">
-        <v>24.34185</v>
+        <v>3.545260459300957</v>
       </c>
       <c r="E82" t="n">
-        <v>0.488</v>
+        <v>3.545260459300957</v>
       </c>
       <c r="F82" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>14.36595090490951</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H82" t="n">
+        <v>8.369999999999999</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.372002761413204</v>
+        <v>-0.4533952557277877</v>
       </c>
       <c r="C83" t="n">
-        <v>2.523533543063708</v>
+        <v>3.91344648456683</v>
       </c>
       <c r="D83" t="n">
-        <v>18.99712222222222</v>
+        <v>3.91344648456683</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4503333333333333</v>
+        <v>3.91344648456683</v>
       </c>
       <c r="F83" t="n">
-        <v>10.29333333333333</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-2)', 'GlcNAc(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>3.267</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5.07</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac9Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2218392569465901</v>
+        <v>-0.2719293019916413</v>
       </c>
       <c r="C84" t="n">
-        <v>2.570518698328314</v>
+        <v>3.633664033857059</v>
       </c>
       <c r="D84" t="n">
-        <v>1.900733333333334</v>
+        <v>3.633664033857059</v>
       </c>
       <c r="E84" t="n">
-        <v>0.453</v>
+        <v>3.633664033857059</v>
       </c>
       <c r="F84" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>11.36611661166116</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8.130000000000001</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac9Ac(a2-6)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[Gal(b1-3)GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.4440788185518973</v>
+        <v>-0.2923211574127248</v>
       </c>
       <c r="C85" t="n">
-        <v>2.711527408935724</v>
+        <v>3.72793298525504</v>
       </c>
       <c r="D85" t="n">
-        <v>4.867050000000001</v>
+        <v>3.72793298525504</v>
       </c>
       <c r="E85" t="n">
-        <v>0.457</v>
+        <v>3.72793298525504</v>
       </c>
       <c r="F85" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>23.19616666666667</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="H85" t="n">
+        <v>16.17</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-3)GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.373103475995707</v>
+        <v>-0.2118903020442352</v>
       </c>
       <c r="C86" t="n">
-        <v>3.012800118574837</v>
+        <v>3.472323110162141</v>
       </c>
       <c r="D86" t="n">
-        <v>1.122233333333333</v>
+        <v>3.472323110162141</v>
       </c>
       <c r="E86" t="n">
-        <v>0.416</v>
+        <v>3.472323110162141</v>
       </c>
       <c r="F86" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>19.83375</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8.130000000000001</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.3360414034622197</v>
+        <v>-0.5622467893822243</v>
       </c>
       <c r="C87" t="n">
-        <v>2.333981990225368</v>
+        <v>3.30688901505312</v>
       </c>
       <c r="D87" t="n">
-        <v>1.491369136913691</v>
+        <v>3.30688901505312</v>
       </c>
       <c r="E87" t="n">
-        <v>0.37</v>
+        <v>3.30688901505312</v>
       </c>
       <c r="F87" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>8.3552</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.69</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-8)Neu5Gc(a2-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.0324338298299807</v>
+        <v>-0.1440212141577329</v>
       </c>
       <c r="C88" t="n">
-        <v>2.980041475604674</v>
+        <v>3.774747690897505</v>
       </c>
       <c r="D88" t="n">
-        <v>1.304644535546445</v>
+        <v>3.774747690897505</v>
       </c>
       <c r="E88" t="n">
-        <v>0.445</v>
+        <v>3.774747690897505</v>
       </c>
       <c r="F88" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>9.3591</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="H88" t="n">
+        <v>12.38</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Neu5Ac(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Neu5Gc(a2-3)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.3471527083519214</v>
+        <v>-0.373103475995707</v>
       </c>
       <c r="C89" t="n">
-        <v>2.432737598489056</v>
+        <v>4.35395110425367</v>
       </c>
       <c r="D89" t="n">
-        <v>2.122337766223377</v>
+        <v>4.35395110425367</v>
       </c>
       <c r="E89" t="n">
-        <v>0.398</v>
+        <v>4.35395110425367</v>
       </c>
       <c r="F89" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>2.305422222222222</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5.28</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -4184,40 +4714,46 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Gc(a2-3)Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.4602062543496377</v>
+        <v>-0.3360414034622197</v>
       </c>
       <c r="C90" t="n">
-        <v>2.961802372068726</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="D90" t="n">
-        <v>1.2385</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="E90" t="n">
-        <v>0.404</v>
+        <v>4.193664264730816</v>
       </c>
       <c r="F90" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>3.918571857185718</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="H90" t="n">
+        <v>9.449999999999999</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -4226,42 +4762,240 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Neu5Gc(a2-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.1507960154547091</v>
+        <v>-0.3210772462216436</v>
       </c>
       <c r="C91" t="n">
-        <v>2.422037373891693</v>
+        <v>4.41969593359119</v>
       </c>
       <c r="D91" t="n">
-        <v>8.836091390860915</v>
+        <v>4.41969593359119</v>
       </c>
       <c r="E91" t="n">
-        <v>0.443</v>
+        <v>4.41969593359119</v>
       </c>
       <c r="F91" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>['GlcNAc(b1-1)']</t>
-        </is>
+        <v>1.044466666666667</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="H91" t="n">
+        <v>13.11</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['GlcNAc']</t>
+          <t>['2C5']</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.0324338298299807</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.351221609869249</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.351221609869249</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.351221609869249</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.609289071092891</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="H92" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
           <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.3471527083519214</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.318021917989927</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.318021917989927</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.318021917989927</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4.46855314468553</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-3)']</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.4602062543496377</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.536346695756726</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.536346695756726</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.536346695756726</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.665100000000001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="H94" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['B3,O6']</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-6)']</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-8)Neu5Ac(a2-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.3569639590948581</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.652321788973978</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.652321788973978</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.652321788973978</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.396666666666667</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H95" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['B2,5']</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-8)']</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>['Sia(a2-?)']</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
